--- a/private/CUG/ComputerScience/OnlineOffice/在线文档.xlsx
+++ b/private/CUG/ComputerScience/OnlineOffice/在线文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18430" tabRatio="599"/>
+    <workbookView windowWidth="20750" windowHeight="10410" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t>在线文档</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>5G</t>
+  </si>
+  <si>
+    <t>iCloud</t>
   </si>
   <si>
     <t>金山文档</t>
@@ -144,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -188,7 +191,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +249,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,82 +312,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -324,25 +327,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +447,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,127 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,10 +583,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -578,40 +594,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,12 +613,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,127 +659,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,11 +1139,11 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="21" outlineLevelRow="4"/>
@@ -1303,18 +1306,22 @@
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="W2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
@@ -1348,7 +1355,7 @@
         <v>27</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="5">
         <v>5</v>
@@ -1380,13 +1387,13 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
@@ -1443,18 +1450,22 @@
       <c r="V4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="W4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
@@ -1469,10 +1480,10 @@
         <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>27</v>
@@ -1512,70 +1523,75 @@
         <v>27</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:X4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I3 E4:H4 D4:D5 H5:I5 E5:F5 D2:F3">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3 G5 H2:K2">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J5 K4:L4 M2:N5">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"有"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:V5 Q2 S2:U2">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3 G5 H2:K2">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J5 K4:L4 M2:N5">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:V5 Q2 S2:U2">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"有"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3 K5:L5">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"有"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/private/CUG/ComputerScience/OnlineOffice/在线文档.xlsx
+++ b/private/CUG/ComputerScience/OnlineOffice/在线文档.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10410" tabRatio="599"/>
+    <workbookView windowWidth="19870" windowHeight="12930" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="121">
   <si>
     <t>在线文档</t>
   </si>
@@ -140,6 +141,243 @@
   </si>
   <si>
     <t>10G</t>
+  </si>
+  <si>
+    <t>基礎功能</t>
+  </si>
+  <si>
+    <t>電腦</t>
+  </si>
+  <si>
+    <t>手機</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>平臺</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Pi-Ub</t>
+  </si>
+  <si>
+    <t>備注</t>
+  </si>
+  <si>
+    <t>瀏覽器</t>
+  </si>
+  <si>
+    <t>3+2+1</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>2+2+0</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>—*—</t>
+  </si>
+  <si>
+    <t>不確定</t>
+  </si>
+  <si>
+    <t>3+2+*</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>自帶</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>文本編輯</t>
+  </si>
+  <si>
+    <t>3+0+*</t>
+  </si>
+  <si>
+    <t>Sublime T</t>
+  </si>
+  <si>
+    <t>Notepad++</t>
+  </si>
+  <si>
+    <t>文本編輯器</t>
+  </si>
+  <si>
+    <t>gedit</t>
+  </si>
+  <si>
+    <t>辦公軟件</t>
+  </si>
+  <si>
+    <t>3+0+1</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>WPS</t>
+  </si>
+  <si>
+    <t>iWork</t>
+  </si>
+  <si>
+    <t>郵件</t>
+  </si>
+  <si>
+    <t>Thunderbird</t>
+  </si>
+  <si>
+    <t>加密通信</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>安全加密</t>
+  </si>
+  <si>
+    <t>GnuPG</t>
+  </si>
+  <si>
+    <t>密碼管理</t>
+  </si>
+  <si>
+    <t>KeepassXC</t>
+  </si>
+  <si>
+    <t>高級功能</t>
+  </si>
+  <si>
+    <t>MD文檔</t>
+  </si>
+  <si>
+    <t>Typora</t>
+  </si>
+  <si>
+    <t>詞典</t>
+  </si>
+  <si>
+    <t>GoldenDict</t>
+  </si>
+  <si>
+    <t>網絡同步</t>
+  </si>
+  <si>
+    <t>Resilio</t>
+  </si>
+  <si>
+    <t>FileZilla</t>
+  </si>
+  <si>
+    <t>下載器</t>
+  </si>
+  <si>
+    <t>µTorrent</t>
+  </si>
+  <si>
+    <t>qBittorrent</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>播放器</t>
+  </si>
+  <si>
+    <t>VLC</t>
+  </si>
+  <si>
+    <t>亮度調節</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>專業功能</t>
+  </si>
+  <si>
+    <t>圖像處理</t>
+  </si>
+  <si>
+    <t>GIMP</t>
+  </si>
+  <si>
+    <t>svg繪圖</t>
+  </si>
+  <si>
+    <t>InkScape</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>繪畫</t>
+  </si>
+  <si>
+    <t>Krita</t>
+  </si>
+  <si>
+    <t>錄屏</t>
+  </si>
+  <si>
+    <t>OBS Studio</t>
+  </si>
+  <si>
+    <t>視頻處理</t>
+  </si>
+  <si>
+    <t>DaVinci Resolve</t>
+  </si>
+  <si>
+    <t>虛擬機</t>
+  </si>
+  <si>
+    <t>Virtual Box</t>
+  </si>
+  <si>
+    <t>遠程控制</t>
+  </si>
+  <si>
+    <t>TeamViewer</t>
   </si>
 </sst>
 </file>
@@ -148,17 +386,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -191,24 +442,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,14 +471,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,18 +515,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,11 +531,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,28 +563,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,192 +578,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -536,6 +811,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -551,17 +848,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +883,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -613,32 +921,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,156 +944,207 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,394 +1477,394 @@
   <sheetPr/>
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="21" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="6" width="7.72727272727273" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.18181818181818" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7272727272727" style="3" customWidth="1"/>
-    <col min="10" max="14" width="7.72727272727273" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.45454545454546" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7272727272727" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.72727272727273" style="3" customWidth="1"/>
-    <col min="18" max="19" width="6.27272727272727" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.18181818181818" style="3" customWidth="1"/>
-    <col min="21" max="21" width="6.27272727272727" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.36363636363636" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14.4545454545455" style="3" customWidth="1"/>
-    <col min="24" max="24" width="7.90909090909091" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="14" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.7272727272727" style="18" customWidth="1"/>
+    <col min="3" max="6" width="7.72727272727273" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.18181818181818" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.7272727272727" style="20" customWidth="1"/>
+    <col min="10" max="14" width="7.72727272727273" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.45454545454546" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.7272727272727" style="20" customWidth="1"/>
+    <col min="17" max="17" width="7.72727272727273" style="20" customWidth="1"/>
+    <col min="18" max="19" width="6.27272727272727" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.18181818181818" style="20" customWidth="1"/>
+    <col min="21" max="21" width="6.27272727272727" style="20" customWidth="1"/>
+    <col min="22" max="22" width="8.36363636363636" style="20" customWidth="1"/>
+    <col min="23" max="23" width="14.4545454545455" style="20" customWidth="1"/>
+    <col min="24" max="24" width="7.90909090909091" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="8.72727272727273" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="18" customFormat="1" spans="1:24">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:24">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="19" customFormat="1" spans="1:24">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="21">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="U2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="H3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="22">
         <v>5</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="5" t="s">
+      <c r="U3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="D4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="J4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="22">
         <v>5</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="Q4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="5" t="s">
+      <c r="U4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="22">
         <v>5</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="Q5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="5" t="s">
+      <c r="U5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1604,4 +1943,943 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1"/>
+    <col min="4" max="6" width="18.9090909090909" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.3636363636364" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.18181818181818" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.09090909090909" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.72727272727273" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="15"/>
+      <c r="B36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="15"/>
+      <c r="B38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>